--- a/FattureXML.xlsx
+++ b/FattureXML.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -504,7 +504,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02da990d-77ba-4188-bc3d-148c0af5ab25</t>
+          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -551,12 +551,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
+          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>225</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -598,12 +598,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
+          <t>9a9715b9-b6a2-40d0-ab08-203f83521bd8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>227</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -641,7 +641,54 @@
           <t>08541347921</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>a2d10108-be68-454d-b158-d342bbb8898d</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2022-06-06</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>TD01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>7076.00</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Emporio dello Sport srl</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>45463740485</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Impresa Comm. Individuale Mario Rossi</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>08541347921</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -654,7 +701,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +770,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02da990d-77ba-4188-bc3d-148c0af5ab25</t>
+          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -765,7 +812,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02da990d-77ba-4188-bc3d-148c0af5ab25</t>
+          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -807,7 +854,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02da990d-77ba-4188-bc3d-148c0af5ab25</t>
+          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -839,7 +886,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
+          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -881,7 +928,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
+          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -923,7 +970,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
+          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -955,7 +1002,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
+          <t>9a9715b9-b6a2-40d0-ab08-203f83521bd8</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -993,12 +1040,11 @@
           <t>22.00</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
+          <t>9a9715b9-b6a2-40d0-ab08-203f83521bd8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1036,12 +1082,11 @@
           <t>22.00</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
+          <t>9a9715b9-b6a2-40d0-ab08-203f83521bd8</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1054,8 +1099,6 @@
           <t>CONTRIBUTO CONAI ASSOLTO</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>0.0000000</t>
@@ -1071,7 +1114,127 @@
           <t>22.00</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>a2d10108-be68-454d-b158-d342bbb8898d</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Borsoni fitness (cod. art. BO33)</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>220.0000000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>15.0000000</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>3300.0000000</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>a2d10108-be68-454d-b158-d342bbb8898d</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Scarpe ginnastica (cod. art. SC55)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>250.0000000</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>NR</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>10.0000000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2500.0000000</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>a2d10108-be68-454d-b158-d342bbb8898d</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CONTRIBUTO CONAI ASSOLTO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.0000000</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0000000</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1084,7 +1247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1135,7 +1298,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02da990d-77ba-4188-bc3d-148c0af5ab25</t>
+          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1162,7 +1325,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
+          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1189,7 +1352,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
+          <t>9a9715b9-b6a2-40d0-ab08-203f83521bd8</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1212,7 +1375,34 @@
           <t>I</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>a2d10108-be68-454d-b158-d342bbb8898d</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>22.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>5800.00</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1276.00</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>I</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/FattureXML.xlsx
+++ b/FattureXML.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:AD3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,13 +440,33 @@
     <col width="38" customWidth="1" min="1" max="1"/>
     <col width="15" customWidth="1" min="2" max="2"/>
     <col width="13" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="16" customWidth="1" min="4" max="4"/>
     <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="25" customWidth="1" min="6" max="6"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="19" customWidth="1" min="7" max="7"/>
-    <col width="39" customWidth="1" min="8" max="8"/>
-    <col width="23" customWidth="1" min="9" max="9"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+    <col width="26" customWidth="1" min="9" max="9"/>
     <col width="13" customWidth="1" min="10" max="10"/>
+    <col width="16" customWidth="1" min="11" max="11"/>
+    <col width="22" customWidth="1" min="12" max="12"/>
+    <col width="22" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="15" customWidth="1" min="15" max="15"/>
+    <col width="18" customWidth="1" min="16" max="16"/>
+    <col width="16" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="18" max="18"/>
+    <col width="23" customWidth="1" min="19" max="19"/>
+    <col width="26" customWidth="1" min="20" max="20"/>
+    <col width="39" customWidth="1" min="21" max="21"/>
+    <col width="17" customWidth="1" min="22" max="22"/>
+    <col width="20" customWidth="1" min="23" max="23"/>
+    <col width="22" customWidth="1" min="24" max="24"/>
+    <col width="16" customWidth="1" min="25" max="25"/>
+    <col width="19" customWidth="1" min="26" max="26"/>
+    <col width="22" customWidth="1" min="27" max="27"/>
+    <col width="20" customWidth="1" min="28" max="28"/>
+    <col width="13" customWidth="1" min="29" max="29"/>
+    <col width="18" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -477,86 +497,261 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>CedenteIdPaese</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CedentePartitaIVA</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CedenteCodiceFiscale</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>CedenteDenominazione</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>CedentePartitaIVA</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CedenteNome</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CedenteCognome</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>CedenteRegimeFiscale</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>CedenteIndirizzo</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>CedenteCAP</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>CedenteComune</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>CedenteProvincia</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>CedenteNazione</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>CessionarioIdPaese</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>CessionarioPartitaIVA</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>CessionarioCodiceFiscale</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>CessionarioDenominazione</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CessionarioPartitaIVA</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>CessionarioNome</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>CessionarioCognome</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>CessionarioIndirizzo</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>CessionarioCAP</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>CessionarioComune</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>CessionarioProvincia</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>CessionarioNazione</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>NotaFattura</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>ProgressivoInvio</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
+          <t>6a63e7cd-6eb7-4185-ab62-116cd041fa3b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2022-06-06</t>
+          <t>2022-10-18</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>TD01</t>
+          <t>TD01 - Fattura</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7076.00</t>
+          <t>6100.00</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Emporio dello Sport srl</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>45463740485</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
+          <t>16102340011</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Silvia Marchesi &amp; C. snc</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>RF01 - Ordinario</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Via Nazionale n. 129</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>10121</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Torino</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>TO</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>08541347921</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>RSSMRA69H25F205H</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>Impresa Comm. Individuale Mario Rossi</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>08541347921</t>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>Via Garibaldi 5</t>
+        </is>
+      </c>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>40124</t>
+        </is>
+      </c>
+      <c r="Z2" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
+          <t>BO</t>
+        </is>
+      </c>
+      <c r="AB2" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="AD2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     E5AcS</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
+          <t>38e420ad-045c-4557-9fbc-c56bd3b7578d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>223</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -566,7 +761,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>TD01</t>
+          <t>TD01 - Fattura</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -576,119 +771,105 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>45463740485</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr">
+        <is>
           <t>Emporio dello Sport srl</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>45463740485</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>RF01 - Ordinario</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Via Roma n. 120</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>50123</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Firenze</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>FI</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>08541347921</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>RSSMRA69H25F205H</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
         <is>
           <t>Impresa Comm. Individuale Mario Rossi</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>08541347921</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>9a9715b9-b6a2-40d0-ab08-203f83521bd8</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>227</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2022-06-06</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>TD01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>7076.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Emporio dello Sport srl</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>45463740485</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Impresa Comm. Individuale Mario Rossi</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>08541347921</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>a2d10108-be68-454d-b158-d342bbb8898d</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>229</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2022-06-06</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>TD01</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>7076.00</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Emporio dello Sport srl</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>45463740485</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Impresa Comm. Individuale Mario Rossi</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>08541347921</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>Via Garibaldi 5</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>40124</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>BO</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>IT</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">     qjofG</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -701,7 +882,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,7 +951,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
+          <t>6a63e7cd-6eb7-4185-ab62-116cd041fa3b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -780,12 +961,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Borsoni fitness (cod. art. BO33)</t>
+          <t>Tuta allenamento (cod. art. TU22)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>220.0000000</t>
+          <t>150.0000000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -795,12 +976,12 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>15.0000000</t>
+          <t>20.0000000</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3300.0000000</t>
+          <t>3000.0000000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -812,7 +993,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
+          <t>6a63e7cd-6eb7-4185-ab62-116cd041fa3b</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -822,7 +1003,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Scarpe ginnastica (cod. art. SC55)</t>
+          <t>K-Way (cod. art. KW02)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -837,12 +1018,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10.0000000</t>
+          <t>8.0000000</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2500.0000000</t>
+          <t>2000.0000000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -854,7 +1035,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
+          <t>6a63e7cd-6eb7-4185-ab62-116cd041fa3b</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -886,7 +1067,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
+          <t>38e420ad-045c-4557-9fbc-c56bd3b7578d</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -924,11 +1105,12 @@
           <t>22.00</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
+          <t>38e420ad-045c-4557-9fbc-c56bd3b7578d</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -966,11 +1148,12 @@
           <t>22.00</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
+          <t>38e420ad-045c-4557-9fbc-c56bd3b7578d</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -983,6 +1166,8 @@
           <t>CONTRIBUTO CONAI ASSOLTO</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>0.0000000</t>
@@ -998,243 +1183,7 @@
           <t>22.00</t>
         </is>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>9a9715b9-b6a2-40d0-ab08-203f83521bd8</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Borsoni fitness (cod. art. BO33)</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>220.0000000</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>NR</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>15.0000000</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3300.0000000</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>9a9715b9-b6a2-40d0-ab08-203f83521bd8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Scarpe ginnastica (cod. art. SC55)</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>250.0000000</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>NR</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>10.0000000</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>2500.0000000</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>9a9715b9-b6a2-40d0-ab08-203f83521bd8</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>CONTRIBUTO CONAI ASSOLTO</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.0000000</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0000000</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>a2d10108-be68-454d-b158-d342bbb8898d</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Borsoni fitness (cod. art. BO33)</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>220.0000000</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>NR</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>15.0000000</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>3300.0000000</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>a2d10108-be68-454d-b158-d342bbb8898d</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Scarpe ginnastica (cod. art. SC55)</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>250.0000000</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>NR</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>10.0000000</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>2500.0000000</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>a2d10108-be68-454d-b158-d342bbb8898d</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>CONTRIBUTO CONAI ASSOLTO</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0.0000000</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0000000</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1247,7 +1196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1259,7 +1208,7 @@
     <col width="13" customWidth="1" min="2" max="2"/>
     <col width="19" customWidth="1" min="3" max="3"/>
     <col width="9" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="27" customWidth="1" min="5" max="5"/>
     <col width="8" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -1298,7 +1247,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ef4ec3fe-6f61-4859-9d54-d36e13ae73f2</t>
+          <t>6a63e7cd-6eb7-4185-ab62-116cd041fa3b</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1308,24 +1257,24 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>5800.00</t>
+          <t>5000.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1276.00</t>
+          <t>1100.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>I - Esigibilità immediata</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3fc0ec7d-f4f2-4fa8-ac70-5f7a41a8b5c8</t>
+          <t>38e420ad-045c-4557-9fbc-c56bd3b7578d</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1345,64 +1294,10 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>9a9715b9-b6a2-40d0-ab08-203f83521bd8</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>5800.00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1276.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>a2d10108-be68-454d-b158-d342bbb8898d</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>22.00</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>5800.00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1276.00</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>I - Esigibilità immediata</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1415,7 +1310,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C62"/>
+  <dimension ref="A1:C73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1425,7 +1320,7 @@
   <cols>
     <col width="26" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
-    <col width="50" customWidth="1" min="3" max="3"/>
+    <col width="48" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1453,7 +1348,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>FatturaElettronica</t>
+          <t>/FatturaElettronica</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1470,7 +1365,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1487,7 +1382,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1504,7 +1399,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/IdTrasmittente</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/IdTrasmittente</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1521,7 +1416,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/IdTrasmittente/IdPaese</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/IdTrasmittente/IdPaese</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1538,7 +1433,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/IdTrasmittente/IdCodice</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/IdTrasmittente/IdCodice</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1555,7 +1450,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/ProgressivoInvio</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/ProgressivoInvio</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1572,7 +1467,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/FormatoTrasmissione</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/FormatoTrasmissione</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1589,7 +1484,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/CodiceDestinatario</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/DatiTrasmissione/CodiceDestinatario</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1606,7 +1501,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1623,7 +1518,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1640,7 +1535,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/IdFiscaleIVA</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/IdFiscaleIVA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1657,7 +1552,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/IdFiscaleIVA/IdPaese</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/IdFiscaleIVA/IdPaese</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1674,7 +1569,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/IdFiscaleIVA/IdCodice</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/IdFiscaleIVA/IdCodice</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1691,7 +1586,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/Anagrafica</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/Anagrafica</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1708,7 +1603,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/Anagrafica/Denominazione</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/Anagrafica/Denominazione</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1725,7 +1620,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/RegimeFiscale</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/DatiAnagrafici/RegimeFiscale</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1742,7 +1637,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1759,7 +1654,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede/Indirizzo</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede/Indirizzo</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1776,7 +1671,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede/CAP</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede/CAP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1793,7 +1688,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede/Comune</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede/Comune</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1810,7 +1705,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede/Provincia</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede/Provincia</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1827,7 +1722,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede/Nazione</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/Sede/Nazione</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1844,7 +1739,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA</t>
         </is>
       </c>
     </row>
@@ -1856,7 +1751,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA/Ufficio</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA/Ufficio</t>
         </is>
       </c>
     </row>
@@ -1868,7 +1763,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA/NumeroREA</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA/NumeroREA</t>
         </is>
       </c>
     </row>
@@ -1880,7 +1775,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA/SocioUnico</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA/SocioUnico</t>
         </is>
       </c>
     </row>
@@ -1892,7 +1787,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA/StatoLiquidazione</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA/StatoLiquidazione</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1799,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA/CapitaleSociale</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CedentePrestatore/IscrizioneREA/CapitaleSociale</t>
         </is>
       </c>
     </row>
@@ -1916,7 +1811,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1933,7 +1828,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1950,7 +1845,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/IdFiscaleIVA</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/IdFiscaleIVA</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1967,7 +1862,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/IdFiscaleIVA/IdPaese</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/IdFiscaleIVA/IdPaese</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1984,7 +1879,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/IdFiscaleIVA/IdCodice</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/IdFiscaleIVA/IdCodice</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -2001,7 +1896,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/CodiceFiscale</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/CodiceFiscale</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -2018,7 +1913,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/Anagrafica</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/Anagrafica</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -2035,7 +1930,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/Anagrafica/Denominazione</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/DatiAnagrafici/Anagrafica/Denominazione</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2052,7 +1947,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -2069,7 +1964,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede/Indirizzo</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede/Indirizzo</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -2086,7 +1981,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede/CAP</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede/CAP</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2103,7 +1998,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede/Comune</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede/Comune</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -2120,7 +2015,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede/Provincia</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede/Provincia</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -2137,7 +2032,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede/Nazione</t>
+          <t>/FatturaElettronica/FatturaElettronicaHeader/CessionarioCommittente/Sede/Nazione</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -2154,7 +2049,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -2171,7 +2066,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiGenerali</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiGenerali</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -2188,7 +2083,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -2205,7 +2100,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento/TipoDocumento</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento/TipoDocumento</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -2222,7 +2117,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento/Divisa</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento/Divisa</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -2239,7 +2134,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento/Data</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento/Data</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -2256,7 +2151,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento/Numero</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento/Numero</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2273,7 +2168,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento/ImportoTotaleDocumento</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiGenerali/DatiGeneraliDocumento/ImportoTotaleDocumento</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -2290,7 +2185,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -2307,143 +2202,330 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DettaglioLinee</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DettaglioLinee</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Dettaglio linee del documento (Elemento ripetibile, gestito in foglio separato)</t>
+          <t>Dettaglio linee del documento</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>DatiRiepilogo</t>
+          <t>NumeroLinea</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DatiRiepilogo</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DettaglioLinee/NumeroLinea</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Dati di riepilogo (Elemento ripetibile, gestito in foglio separato)</t>
+          <t>Numero progressivo della linea</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>DatiPagamento</t>
+          <t>Descrizione</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiPagamento</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DettaglioLinee/Descrizione</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Dati del pagamento</t>
+          <t>Descrizione della linea</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CondizioniPagamento</t>
+          <t>Quantita</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiPagamento/CondizioniPagamento</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DettaglioLinee/Quantita</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Condizioni di pagamento</t>
+          <t>Quantità</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>DettaglioPagamento</t>
+          <t>UnitaMisura</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiPagamento/DettaglioPagamento</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DettaglioLinee/UnitaMisura</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Dettaglio del pagamento</t>
+          <t>Unità di misura</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>ModalitaPagamento</t>
+          <t>PrezzoUnitario</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiPagamento/DettaglioPagamento/ModalitaPagamento</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DettaglioLinee/PrezzoUnitario</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Modalità di pagamento</t>
+          <t>Prezzo unitario</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>DataScadenzaPagamento</t>
+          <t>PrezzoTotale</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiPagamento/DettaglioPagamento/DataScadenzaPagamento</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DettaglioLinee/PrezzoTotale</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Data scadenza pagamento</t>
+          <t>Prezzo totale</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ImportoPagamento</t>
+          <t>AliquotaIVA</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiPagamento/DettaglioPagamento/ImportoPagamento</t>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DettaglioLinee/AliquotaIVA</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Importo del pagamento</t>
+          <t>Aliquota IVA</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
+          <t>DatiRiepilogo</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DatiRiepilogo</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Dati di riepilogo</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>AliquotaIVA</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DatiRiepilogo/AliquotaIVA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Aliquota IVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>ImponibileImporto</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DatiRiepilogo/ImponibileImporto</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Imponibile</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Imposta</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DatiRiepilogo/Imposta</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Imposta</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>EsigibilitaIVA</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiBeniServizi/DatiRiepilogo/EsigibilitaIVA</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Esigibilità IVA</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>DatiPagamento</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiPagamento</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Dati del pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CondizioniPagamento</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiPagamento/CondizioniPagamento</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Condizioni di pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>DettaglioPagamento</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiPagamento/DettaglioPagamento</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Dettaglio del pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>ModalitaPagamento</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiPagamento/DettaglioPagamento/ModalitaPagamento</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Modalità di pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>DataScadenzaPagamento</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiPagamento/DettaglioPagamento/DataScadenzaPagamento</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Data scadenza pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>ImportoPagamento</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiPagamento/DettaglioPagamento/ImportoPagamento</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Importo del pagamento</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
           <t>CodicePagamento</t>
         </is>
       </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>FatturaElettronica/FatturaElettronicaBody/DatiPagamento/DettaglioPagamento/CodicePagamento</t>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>/FatturaElettronica/FatturaElettronicaBody/DatiPagamento/DettaglioPagamento/CodicePagamento</t>
         </is>
       </c>
     </row>
